--- a/assets/locs.xlsx
+++ b/assets/locs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nexju\OneDrive\Desktop\Lakbayanv2\lakbayan\lib\fonts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nexju\Desktop\lakbayan\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F11C1E64-5A4D-4377-A622-EECB35837FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A434850-43C2-4888-9A1A-7954AE882E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0A7C5311-AFE1-4582-A930-9E6221404216}"/>
+    <workbookView xWindow="14820" yWindow="0" windowWidth="13980" windowHeight="11295" xr2:uid="{0A7C5311-AFE1-4582-A930-9E6221404216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>place</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>pool/resorts</t>
+  </si>
+  <si>
+    <t>gReviews</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA177F7-2EEB-4973-911F-63BC5D10F2F4}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,188 +504,326 @@
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
